--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.276989</v>
+        <v>0.022103</v>
       </c>
       <c r="H2">
-        <v>0.830967</v>
+        <v>0.06630900000000001</v>
       </c>
       <c r="I2">
-        <v>0.0126770351133645</v>
+        <v>0.0007043476645371027</v>
       </c>
       <c r="J2">
-        <v>0.0126770351133645</v>
+        <v>0.0007043476645371028</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4.389289333333333</v>
+        <v>3.825035</v>
       </c>
       <c r="N2">
-        <v>13.167868</v>
+        <v>11.475105</v>
       </c>
       <c r="O2">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="P2">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="Q2">
-        <v>1.215784863150666</v>
+        <v>0.084544748605</v>
       </c>
       <c r="R2">
-        <v>10.942063768356</v>
+        <v>0.760902737445</v>
       </c>
       <c r="S2">
-        <v>0.0005065545993965406</v>
+        <v>2.191622031667857E-05</v>
       </c>
       <c r="T2">
-        <v>0.0005065545993965406</v>
+        <v>2.191622031667858E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.276989</v>
+        <v>0.022103</v>
       </c>
       <c r="H3">
-        <v>0.830967</v>
+        <v>0.06630900000000001</v>
       </c>
       <c r="I3">
-        <v>0.0126770351133645</v>
+        <v>0.0007043476645371027</v>
       </c>
       <c r="J3">
-        <v>0.0126770351133645</v>
+        <v>0.0007043476645371028</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>173.692871</v>
       </c>
       <c r="O3">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="P3">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="Q3">
-        <v>16.03700488180633</v>
+        <v>1.279711175904333</v>
       </c>
       <c r="R3">
-        <v>144.333043936257</v>
+        <v>11.517400583139</v>
       </c>
       <c r="S3">
-        <v>0.006681789541590181</v>
+        <v>0.000331734762189316</v>
       </c>
       <c r="T3">
-        <v>0.006681789541590181</v>
+        <v>0.000331734762189316</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.276989</v>
+        <v>0.022103</v>
       </c>
       <c r="H4">
-        <v>0.830967</v>
+        <v>0.06630900000000001</v>
       </c>
       <c r="I4">
-        <v>0.0126770351133645</v>
+        <v>0.0007043476645371027</v>
       </c>
       <c r="J4">
-        <v>0.0126770351133645</v>
+        <v>0.0007043476645371028</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.43015733333333</v>
+        <v>61.10114166666667</v>
       </c>
       <c r="N4">
-        <v>142.290472</v>
+        <v>183.303425</v>
       </c>
       <c r="O4">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="P4">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="Q4">
-        <v>13.13763184960267</v>
+        <v>1.350518534258333</v>
       </c>
       <c r="R4">
-        <v>118.238686646424</v>
+        <v>12.154666808325</v>
       </c>
       <c r="S4">
-        <v>0.005473770927982015</v>
+        <v>0.000350089889992446</v>
       </c>
       <c r="T4">
-        <v>0.005473770927982015</v>
+        <v>0.000350089889992446</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.276989</v>
+        <v>0.022103</v>
       </c>
       <c r="H5">
-        <v>0.830967</v>
+        <v>0.06630900000000001</v>
       </c>
       <c r="I5">
-        <v>0.0126770351133645</v>
+        <v>0.0007043476645371027</v>
       </c>
       <c r="J5">
-        <v>0.0126770351133645</v>
+        <v>0.0007043476645371028</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.129282</v>
+        <v>0.1059033333333333</v>
       </c>
       <c r="N5">
-        <v>0.387846</v>
+        <v>0.31771</v>
       </c>
       <c r="O5">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="P5">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="Q5">
-        <v>0.035809691898</v>
+        <v>0.002340781376666667</v>
       </c>
       <c r="R5">
-        <v>0.322287227082</v>
+        <v>0.02106703239</v>
       </c>
       <c r="S5">
-        <v>1.492004439576329E-05</v>
+        <v>6.067920386621254E-07</v>
       </c>
       <c r="T5">
-        <v>1.492004439576329E-05</v>
+        <v>6.067920386621255E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.827140333333333</v>
+        <v>5.827140333333332</v>
       </c>
       <c r="H6">
         <v>17.481421</v>
       </c>
       <c r="I6">
-        <v>0.2666924051719354</v>
+        <v>0.1856912041222136</v>
       </c>
       <c r="J6">
-        <v>0.2666924051719354</v>
+        <v>0.1856912041222136</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>4.389289333333333</v>
+        <v>3.825035</v>
       </c>
       <c r="N6">
-        <v>13.167868</v>
+        <v>11.475105</v>
       </c>
       <c r="O6">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="P6">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="Q6">
-        <v>25.57700490893644</v>
+        <v>22.28901572491166</v>
       </c>
       <c r="R6">
-        <v>230.193044180428</v>
+        <v>200.601141524205</v>
       </c>
       <c r="S6">
-        <v>0.01065661357374875</v>
+        <v>0.005777898536919745</v>
       </c>
       <c r="T6">
-        <v>0.01065661357374875</v>
+        <v>0.005777898536919746</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.827140333333333</v>
+        <v>5.827140333333332</v>
       </c>
       <c r="H7">
         <v>17.481421</v>
       </c>
       <c r="I7">
-        <v>0.2666924051719354</v>
+        <v>0.1856912041222136</v>
       </c>
       <c r="J7">
-        <v>0.2666924051719354</v>
+        <v>0.1856912041222136</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>173.692871</v>
       </c>
       <c r="O7">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="P7">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="Q7">
         <v>337.3775780721879</v>
@@ -883,10 +883,10 @@
         <v>3036.398202649691</v>
       </c>
       <c r="S7">
-        <v>0.140567767444357</v>
+        <v>0.08745713309153076</v>
       </c>
       <c r="T7">
-        <v>0.140567767444357</v>
+        <v>0.08745713309153076</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.827140333333333</v>
+        <v>5.827140333333332</v>
       </c>
       <c r="H8">
         <v>17.481421</v>
       </c>
       <c r="I8">
-        <v>0.2666924051719354</v>
+        <v>0.1856912041222136</v>
       </c>
       <c r="J8">
-        <v>0.2666924051719354</v>
+        <v>0.1856912041222136</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.43015733333333</v>
+        <v>61.10114166666667</v>
       </c>
       <c r="N8">
-        <v>142.290472</v>
+        <v>183.303425</v>
       </c>
       <c r="O8">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="P8">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="Q8">
-        <v>276.3821828134124</v>
+        <v>356.0449270185472</v>
       </c>
       <c r="R8">
-        <v>2487.439645320712</v>
+        <v>3204.404343166925</v>
       </c>
       <c r="S8">
-        <v>0.1151541445684538</v>
+        <v>0.09229620043737101</v>
       </c>
       <c r="T8">
-        <v>0.1151541445684538</v>
+        <v>0.09229620043737101</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.827140333333333</v>
+        <v>5.827140333333332</v>
       </c>
       <c r="H9">
         <v>17.481421</v>
       </c>
       <c r="I9">
-        <v>0.2666924051719354</v>
+        <v>0.1856912041222136</v>
       </c>
       <c r="J9">
-        <v>0.2666924051719354</v>
+        <v>0.1856912041222136</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.129282</v>
+        <v>0.1059033333333333</v>
       </c>
       <c r="N9">
-        <v>0.387846</v>
+        <v>0.31771</v>
       </c>
       <c r="O9">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="P9">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="Q9">
-        <v>0.753344356574</v>
+        <v>0.617113585101111</v>
       </c>
       <c r="R9">
-        <v>6.780099209166001</v>
+        <v>5.554022265909999</v>
       </c>
       <c r="S9">
-        <v>0.0003138795853758677</v>
+        <v>0.0001599720563920567</v>
       </c>
       <c r="T9">
-        <v>0.0003138795853758678</v>
+        <v>0.0001599720563920567</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.994657</v>
+        <v>15.496839</v>
       </c>
       <c r="H10">
-        <v>38.983971</v>
+        <v>46.490517</v>
       </c>
       <c r="I10">
-        <v>0.5947301989433798</v>
+        <v>0.4938317132225258</v>
       </c>
       <c r="J10">
-        <v>0.5947301989433798</v>
+        <v>0.4938317132225258</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>4.389289333333333</v>
+        <v>3.825035</v>
       </c>
       <c r="N10">
-        <v>13.167868</v>
+        <v>11.475105</v>
       </c>
       <c r="O10">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="P10">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="Q10">
-        <v>57.03730936042533</v>
+        <v>59.27595156436499</v>
       </c>
       <c r="R10">
-        <v>513.3357842438279</v>
+        <v>533.483564079285</v>
       </c>
       <c r="S10">
-        <v>0.023764493430896</v>
+        <v>0.01536588416667859</v>
       </c>
       <c r="T10">
-        <v>0.023764493430896</v>
+        <v>0.01536588416667859</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.994657</v>
+        <v>15.496839</v>
       </c>
       <c r="H11">
-        <v>38.983971</v>
+        <v>46.490517</v>
       </c>
       <c r="I11">
-        <v>0.5947301989433798</v>
+        <v>0.4938317132225258</v>
       </c>
       <c r="J11">
-        <v>0.5947301989433798</v>
+        <v>0.4938317132225258</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>173.692871</v>
       </c>
       <c r="O11">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="P11">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="Q11">
-        <v>752.3597606634156</v>
+        <v>897.230152444923</v>
       </c>
       <c r="R11">
-        <v>6771.237845970741</v>
+        <v>8075.071372004306</v>
       </c>
       <c r="S11">
-        <v>0.3134693552420914</v>
+        <v>0.2325856309257167</v>
       </c>
       <c r="T11">
-        <v>0.3134693552420914</v>
+        <v>0.2325856309257167</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.994657</v>
+        <v>15.496839</v>
       </c>
       <c r="H12">
-        <v>38.983971</v>
+        <v>46.490517</v>
       </c>
       <c r="I12">
-        <v>0.5947301989433798</v>
+        <v>0.4938317132225258</v>
       </c>
       <c r="J12">
-        <v>0.5947301989433798</v>
+        <v>0.4938317132225258</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.43015733333333</v>
+        <v>61.10114166666667</v>
       </c>
       <c r="N12">
-        <v>142.290472</v>
+        <v>183.303425</v>
       </c>
       <c r="O12">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="P12">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="Q12">
-        <v>616.3386260027013</v>
+        <v>946.874555124525</v>
       </c>
       <c r="R12">
-        <v>5547.047634024311</v>
+        <v>8521.870996120724</v>
       </c>
       <c r="S12">
-        <v>0.2567963915740264</v>
+        <v>0.2454547645451136</v>
       </c>
       <c r="T12">
-        <v>0.2567963915740264</v>
+        <v>0.2454547645451136</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.994657</v>
+        <v>15.496839</v>
       </c>
       <c r="H13">
-        <v>38.983971</v>
+        <v>46.490517</v>
       </c>
       <c r="I13">
-        <v>0.5947301989433798</v>
+        <v>0.4938317132225258</v>
       </c>
       <c r="J13">
-        <v>0.5947301989433798</v>
+        <v>0.4938317132225258</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.129282</v>
+        <v>0.1059033333333333</v>
       </c>
       <c r="N13">
-        <v>0.387846</v>
+        <v>0.31771</v>
       </c>
       <c r="O13">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="P13">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="Q13">
-        <v>1.679975246274</v>
+        <v>1.64116690623</v>
       </c>
       <c r="R13">
-        <v>15.119777216466</v>
+        <v>14.77050215607</v>
       </c>
       <c r="S13">
-        <v>0.000699958696365979</v>
+        <v>0.0004254335850169087</v>
       </c>
       <c r="T13">
-        <v>0.0006999586963659791</v>
+        <v>0.0004254335850169087</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.750881</v>
+        <v>10.03472733333333</v>
       </c>
       <c r="H14">
-        <v>8.252642999999999</v>
+        <v>30.104182</v>
       </c>
       <c r="I14">
-        <v>0.1259003607713204</v>
+        <v>0.3197727349907235</v>
       </c>
       <c r="J14">
-        <v>0.1259003607713204</v>
+        <v>0.3197727349907235</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>4.389289333333333</v>
+        <v>3.825035</v>
       </c>
       <c r="N14">
-        <v>13.167868</v>
+        <v>11.475105</v>
       </c>
       <c r="O14">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="P14">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="Q14">
-        <v>12.07441263056933</v>
+        <v>38.38318326545667</v>
       </c>
       <c r="R14">
-        <v>108.669713675124</v>
+        <v>345.44864938911</v>
       </c>
       <c r="S14">
-        <v>0.005030782532672977</v>
+        <v>0.009949929650053377</v>
       </c>
       <c r="T14">
-        <v>0.005030782532672977</v>
+        <v>0.009949929650053377</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.750881</v>
+        <v>10.03472733333333</v>
       </c>
       <c r="H15">
-        <v>8.252642999999999</v>
+        <v>30.104182</v>
       </c>
       <c r="I15">
-        <v>0.1259003607713204</v>
+        <v>0.3197727349907235</v>
       </c>
       <c r="J15">
-        <v>0.1259003607713204</v>
+        <v>0.3197727349907235</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>173.692871</v>
       </c>
       <c r="O15">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="P15">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="Q15">
-        <v>159.2694728897837</v>
+        <v>580.986866742947</v>
       </c>
       <c r="R15">
-        <v>1433.425256008053</v>
+        <v>5228.881800686522</v>
       </c>
       <c r="S15">
-        <v>0.06635934241417218</v>
+        <v>0.1506070617363237</v>
       </c>
       <c r="T15">
-        <v>0.06635934241417218</v>
+        <v>0.1506070617363237</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.750881</v>
+        <v>10.03472733333333</v>
       </c>
       <c r="H16">
-        <v>8.252642999999999</v>
+        <v>30.104182</v>
       </c>
       <c r="I16">
-        <v>0.1259003607713204</v>
+        <v>0.3197727349907235</v>
       </c>
       <c r="J16">
-        <v>0.1259003607713204</v>
+        <v>0.3197727349907235</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.43015733333333</v>
+        <v>61.10114166666667</v>
       </c>
       <c r="N16">
-        <v>142.290472</v>
+        <v>183.303425</v>
       </c>
       <c r="O16">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="P16">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="Q16">
-        <v>130.4747186352773</v>
+        <v>613.1332963803724</v>
       </c>
       <c r="R16">
-        <v>1174.272467717496</v>
+        <v>5518.199667423351</v>
       </c>
       <c r="S16">
-        <v>0.0543620593024925</v>
+        <v>0.1589402609704953</v>
       </c>
       <c r="T16">
-        <v>0.0543620593024925</v>
+        <v>0.1589402609704953</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.750881</v>
+        <v>10.03472733333333</v>
       </c>
       <c r="H17">
-        <v>8.252642999999999</v>
+        <v>30.104182</v>
       </c>
       <c r="I17">
-        <v>0.1259003607713204</v>
+        <v>0.3197727349907235</v>
       </c>
       <c r="J17">
-        <v>0.1259003607713204</v>
+        <v>0.3197727349907235</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.129282</v>
+        <v>0.1059033333333333</v>
       </c>
       <c r="N17">
-        <v>0.387846</v>
+        <v>0.31771</v>
       </c>
       <c r="O17">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="P17">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="Q17">
-        <v>0.355639397442</v>
+        <v>1.062711073691111</v>
       </c>
       <c r="R17">
-        <v>3.200754576978</v>
+        <v>9.56439966322</v>
       </c>
       <c r="S17">
-        <v>0.0001481765219826842</v>
+        <v>0.0002754826338511463</v>
       </c>
       <c r="T17">
-        <v>0.0001481765219826842</v>
+        <v>0.0002754826338511463</v>
       </c>
     </row>
   </sheetData>
